--- a/Data Collection/Project Data.xlsx
+++ b/Data Collection/Project Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tawsi\Documents\GitHub\Lora-Traffic-Control\Data Collection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\GitLab Repo\Lora-Traffic-Control-System\Data Collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,16 +13,18 @@
   </bookViews>
   <sheets>
     <sheet name="T(s) vs N for Mode - 10" sheetId="1" r:id="rId1"/>
-    <sheet name="T(s) vs N for Mode - 4" sheetId="2" r:id="rId2"/>
+    <sheet name="T(s) vs N @ 50m" sheetId="2" r:id="rId2"/>
     <sheet name="T(s) vs N @ 150m" sheetId="3" r:id="rId3"/>
+    <sheet name="T(s) vs N @ 250m" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'T(s) vs N for Mode - 10'!$B$2:$B$1000</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'T(s) vs N for Mode - 4'!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'T(s) vs N for Mode - 4'!$B$2:$B$1012</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'T(s) vs N for Mode - 4'!$B$2:$B$1017</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'T(s) vs N for Mode - 4'!$B$2:$B$1017</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'T(s) vs N @ 150m'!$B$2:$B$162</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'T(s) vs N @ 50m'!$B$2:$B$1017</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'T(s) vs N @ 50m'!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'T(s) vs N @ 50m'!$B$2:$B$1012</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'T(s) vs N @ 150m'!$B$2:$B$162</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'T(s) vs N @ 250m'!$B$2:$B$1012</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'T(s) vs N @ 250m'!$B$2:$B$1012</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Sample</t>
   </si>
@@ -76,6 +78,72 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average </t>
+  </si>
+  <si>
+    <t>Max Retries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min Time  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Success Rate  </t>
+  </si>
+  <si>
+    <t>Configuration:</t>
+  </si>
+  <si>
+    <t>Lora Mode</t>
+  </si>
+  <si>
+    <t>Bandwidth</t>
+  </si>
+  <si>
+    <t>63.5kHz</t>
+  </si>
+  <si>
+    <t>Coding Rate</t>
+  </si>
+  <si>
+    <t>CR_8</t>
+  </si>
+  <si>
+    <t>Spreading Factor</t>
+  </si>
+  <si>
+    <t>SF_12</t>
+  </si>
+  <si>
+    <t>At a glance</t>
+  </si>
+  <si>
+    <t>Mode = 4</t>
+  </si>
+  <si>
+    <t>125kHz</t>
+  </si>
+  <si>
+    <t>SF_7</t>
+  </si>
+  <si>
+    <t>CR_5</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Max retries</t>
+  </si>
+  <si>
+    <t>Max Time</t>
+  </si>
+  <si>
+    <t>Min Time</t>
   </si>
 </sst>
 </file>
@@ -282,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,14 +376,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -323,24 +411,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,7 +645,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -622,7 +701,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -649,7 +728,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{AFB2AF56-BE73-4764-8968-C15EA148E600}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Time(s)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -682,12 +761,28 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Histogram</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="clusteredColumn" uniqueId="{A3968BD1-7DEB-45F4-921C-F715DF39BA18}">
@@ -706,6 +801,100 @@
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Histogram</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{2F1DBEE0-C388-4998-AB2A-CC6E9B6FD9D5}">
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time Period(s)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sample(N)</a:t>
+                </a:r>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -836,6 +1025,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2655,6 +2884,451 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2874,21 +3548,94 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Chart 1"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3"/>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -3425,11 +4172,11 @@
       <c r="B25" s="6">
         <v>3.2989999999999999</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11">
+      <c r="E25" s="21"/>
+      <c r="F25" s="9">
         <f>AVERAGE(B2:B1000)</f>
         <v>4.3567687687687622</v>
       </c>
@@ -3441,11 +4188,11 @@
       <c r="B26" s="6">
         <v>3.3010000000000002</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14">
+      <c r="E26" s="23"/>
+      <c r="F26" s="10">
         <v>1</v>
       </c>
     </row>
@@ -3456,11 +4203,11 @@
       <c r="B27" s="6">
         <v>3.302</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="15">
+      <c r="E27" s="23"/>
+      <c r="F27" s="11">
         <v>4</v>
       </c>
     </row>
@@ -3471,11 +4218,11 @@
       <c r="B28" s="6">
         <v>3.302</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="15">
+      <c r="E28" s="23"/>
+      <c r="F28" s="11">
         <f>MAX(B2:B1000)</f>
         <v>25.4</v>
       </c>
@@ -3487,11 +4234,11 @@
       <c r="B29" s="6">
         <v>3.2989999999999999</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18">
+      <c r="E29" s="25"/>
+      <c r="F29" s="12">
         <f>MIN(B2:B1000)</f>
         <v>3.266</v>
       </c>
@@ -11711,19 +12458,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1020"/>
+  <dimension ref="A1:H1020"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:F25"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -11847,7 +12594,7 @@
         <v>4.1630000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -11855,7 +12602,7 @@
         <v>4.1630000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -11863,7 +12610,7 @@
         <v>4.1630000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -11871,7 +12618,7 @@
         <v>4.1630000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -11879,85 +12626,88 @@
         <v>4.1630000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>4.1630000000000003</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="19">
+      <c r="E21" s="21"/>
+      <c r="F21" s="13">
         <f>AVERAGE(B2:B1016)</f>
         <v>4.2061822660099049</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>4.1630000000000003</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="20">
+      <c r="E22" s="23"/>
+      <c r="F22" s="14">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>4.1630000000000003</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="20">
+      <c r="E23" s="23"/>
+      <c r="F23" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>4.1630000000000003</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="20">
+      <c r="E24" s="23"/>
+      <c r="F24" s="14">
         <f>MAX(B2:B1017)</f>
         <v>14.458</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>4.1630000000000003</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="21">
+      <c r="E25" s="25"/>
+      <c r="F25" s="15">
         <f>MIN(B2:B1017)</f>
         <v>4.1630000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -11965,7 +12715,7 @@
         <v>4.1630000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -11973,7 +12723,7 @@
         <v>4.1630000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -11981,7 +12731,7 @@
         <v>4.1630000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -11989,7 +12739,7 @@
         <v>4.1630000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -11997,7 +12747,7 @@
         <v>4.1630000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -12005,7 +12755,7 @@
         <v>4.1630000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -19923,55 +20673,116 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B162"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>4.1310000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(B2:B151)</f>
+        <v>5.608480000000017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>4.1660000000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>4.1660000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4">
+        <f>MAX(B2:B151)</f>
+        <v>45.334000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>4.1660000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5">
+        <f>MIN(B2:B151)</f>
+        <v>4.1310000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -19979,7 +20790,7 @@
         <v>4.1660000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -19987,7 +20798,7 @@
         <v>4.165</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -19995,7 +20806,7 @@
         <v>4.1660000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -20003,7 +20814,7 @@
         <v>4.1660000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -20011,7 +20822,7 @@
         <v>4.1660000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -20019,7 +20830,7 @@
         <v>4.1660000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -20027,7 +20838,7 @@
         <v>35.42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -20035,7 +20846,7 @@
         <v>4.1660000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -20043,7 +20854,7 @@
         <v>4.1660000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -20051,7 +20862,7 @@
         <v>4.1660000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -21140,11 +21951,1345 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1012"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="16"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="19" max="19" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1"/>
+      <c r="G1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(B2:B1012)</f>
+        <v>5.417694105691047</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <f>MAX(B2:B1012)</f>
+        <v>39.360999999999997</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <f>MIN(B2:B1012)</f>
+        <v>4.1020000000000003</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.97430000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1">
+        <v>14.394</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1">
+        <v>14.395</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1">
+        <v>14.394</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1">
+        <v>14.395</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1">
+        <v>14.398</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1">
+        <v>14.395</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1">
+        <v>14.395</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1">
+        <v>14.394</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1">
+        <v>14.394</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
       <c r="B152" s="1">
-        <v>4.1660000000000004</v>
+        <v>4.1059999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -21152,7 +23297,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1">
-        <v>4.1660000000000004</v>
+        <v>14.398</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -21160,7 +23305,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1">
-        <v>4.1680000000000001</v>
+        <v>4.1029999999999998</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -21168,7 +23313,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1">
-        <v>4.1660000000000004</v>
+        <v>4.1050000000000004</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -21176,7 +23321,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1">
-        <v>4.1680000000000001</v>
+        <v>4.1040000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -21184,7 +23329,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1">
-        <v>4.165</v>
+        <v>4.1040000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -21192,7 +23337,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1">
-        <v>4.1660000000000004</v>
+        <v>4.1040000000000001</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -21200,7 +23345,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1">
-        <v>4.1660000000000004</v>
+        <v>4.1050000000000004</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -21208,7 +23353,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1">
-        <v>4.165</v>
+        <v>4.1040000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -21216,7 +23361,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1">
-        <v>14.422000000000001</v>
+        <v>4.1040000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -21224,11 +23369,6764 @@
         <v>161</v>
       </c>
       <c r="B162" s="1">
-        <v>4.1630000000000003</v>
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1">
+        <v>14.395</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1">
+        <v>14.398999999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1">
+        <v>14.395</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233" s="1">
+        <v>14.394</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236" s="1">
+        <v>14.395</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243" s="1">
+        <v>4.1070000000000002</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245" s="1">
+        <v>14.395</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263" s="1"/>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264" s="1"/>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279" s="1">
+        <v>14.395</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289" s="1">
+        <v>14.398</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300" s="1"/>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301" s="1"/>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>307</v>
+      </c>
+      <c r="B308" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>308</v>
+      </c>
+      <c r="B309" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>309</v>
+      </c>
+      <c r="B310" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>310</v>
+      </c>
+      <c r="B311" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>311</v>
+      </c>
+      <c r="B312" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>312</v>
+      </c>
+      <c r="B313" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>313</v>
+      </c>
+      <c r="B314" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>314</v>
+      </c>
+      <c r="B315" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>315</v>
+      </c>
+      <c r="B316" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>316</v>
+      </c>
+      <c r="B317" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>317</v>
+      </c>
+      <c r="B318" s="1"/>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>318</v>
+      </c>
+      <c r="B319" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>319</v>
+      </c>
+      <c r="B320" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>320</v>
+      </c>
+      <c r="B321" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>321</v>
+      </c>
+      <c r="B322" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>322</v>
+      </c>
+      <c r="B323" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>323</v>
+      </c>
+      <c r="B324" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>324</v>
+      </c>
+      <c r="B325" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>325</v>
+      </c>
+      <c r="B326" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>326</v>
+      </c>
+      <c r="B327" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>327</v>
+      </c>
+      <c r="B328" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>328</v>
+      </c>
+      <c r="B329" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>329</v>
+      </c>
+      <c r="B330" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>330</v>
+      </c>
+      <c r="B331" s="1">
+        <v>14.398</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>331</v>
+      </c>
+      <c r="B332" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>332</v>
+      </c>
+      <c r="B333" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>333</v>
+      </c>
+      <c r="B334" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>334</v>
+      </c>
+      <c r="B335" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>335</v>
+      </c>
+      <c r="B336" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>336</v>
+      </c>
+      <c r="B337" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>337</v>
+      </c>
+      <c r="B338" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>338</v>
+      </c>
+      <c r="B339" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>339</v>
+      </c>
+      <c r="B340" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>340</v>
+      </c>
+      <c r="B341" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>341</v>
+      </c>
+      <c r="B342" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>342</v>
+      </c>
+      <c r="B343" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>343</v>
+      </c>
+      <c r="B344" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>344</v>
+      </c>
+      <c r="B345" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>345</v>
+      </c>
+      <c r="B346" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>346</v>
+      </c>
+      <c r="B347" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>347</v>
+      </c>
+      <c r="B348" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>348</v>
+      </c>
+      <c r="B349" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>349</v>
+      </c>
+      <c r="B350" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>350</v>
+      </c>
+      <c r="B351" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>351</v>
+      </c>
+      <c r="B352" s="1">
+        <v>14.395</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>352</v>
+      </c>
+      <c r="B353" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>353</v>
+      </c>
+      <c r="B354" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>354</v>
+      </c>
+      <c r="B355" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>355</v>
+      </c>
+      <c r="B356" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>356</v>
+      </c>
+      <c r="B357" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>357</v>
+      </c>
+      <c r="B358" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>358</v>
+      </c>
+      <c r="B359" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>359</v>
+      </c>
+      <c r="B360" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>360</v>
+      </c>
+      <c r="B361" s="1">
+        <v>14.395</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>361</v>
+      </c>
+      <c r="B362" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>362</v>
+      </c>
+      <c r="B363" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>363</v>
+      </c>
+      <c r="B364" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>364</v>
+      </c>
+      <c r="B365" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>365</v>
+      </c>
+      <c r="B366" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>366</v>
+      </c>
+      <c r="B367" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
+        <v>367</v>
+      </c>
+      <c r="B368" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
+        <v>368</v>
+      </c>
+      <c r="B369" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
+        <v>369</v>
+      </c>
+      <c r="B370" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
+        <v>370</v>
+      </c>
+      <c r="B371" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
+        <v>371</v>
+      </c>
+      <c r="B372" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
+        <v>372</v>
+      </c>
+      <c r="B373" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
+        <v>373</v>
+      </c>
+      <c r="B374" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
+        <v>374</v>
+      </c>
+      <c r="B375" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
+        <v>375</v>
+      </c>
+      <c r="B376" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
+        <v>376</v>
+      </c>
+      <c r="B377" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
+        <v>377</v>
+      </c>
+      <c r="B378" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
+        <v>378</v>
+      </c>
+      <c r="B379" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
+        <v>379</v>
+      </c>
+      <c r="B380" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
+        <v>380</v>
+      </c>
+      <c r="B381" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
+        <v>381</v>
+      </c>
+      <c r="B382" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
+        <v>382</v>
+      </c>
+      <c r="B383" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
+        <v>383</v>
+      </c>
+      <c r="B384" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
+        <v>384</v>
+      </c>
+      <c r="B385" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" s="1">
+        <v>385</v>
+      </c>
+      <c r="B386" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" s="1">
+        <v>386</v>
+      </c>
+      <c r="B387" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" s="1">
+        <v>387</v>
+      </c>
+      <c r="B388" s="1">
+        <v>14.398</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
+        <v>388</v>
+      </c>
+      <c r="B389" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
+        <v>389</v>
+      </c>
+      <c r="B390" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" s="1">
+        <v>390</v>
+      </c>
+      <c r="B391" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" s="1">
+        <v>391</v>
+      </c>
+      <c r="B392" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
+        <v>392</v>
+      </c>
+      <c r="B393" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
+        <v>393</v>
+      </c>
+      <c r="B394" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" s="1">
+        <v>394</v>
+      </c>
+      <c r="B395" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
+        <v>395</v>
+      </c>
+      <c r="B396" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
+        <v>396</v>
+      </c>
+      <c r="B397" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
+        <v>397</v>
+      </c>
+      <c r="B398" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
+        <v>398</v>
+      </c>
+      <c r="B399" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
+        <v>399</v>
+      </c>
+      <c r="B400" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
+        <v>400</v>
+      </c>
+      <c r="B401" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
+        <v>401</v>
+      </c>
+      <c r="B402" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
+        <v>402</v>
+      </c>
+      <c r="B403" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
+        <v>403</v>
+      </c>
+      <c r="B404" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
+        <v>404</v>
+      </c>
+      <c r="B405" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
+        <v>405</v>
+      </c>
+      <c r="B406" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" s="1">
+        <v>406</v>
+      </c>
+      <c r="B407" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" s="1">
+        <v>407</v>
+      </c>
+      <c r="B408" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" s="1">
+        <v>408</v>
+      </c>
+      <c r="B409" s="1"/>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" s="1">
+        <v>409</v>
+      </c>
+      <c r="B410" s="1"/>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" s="1">
+        <v>410</v>
+      </c>
+      <c r="B411" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" s="1">
+        <v>411</v>
+      </c>
+      <c r="B412" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" s="1">
+        <v>412</v>
+      </c>
+      <c r="B413" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" s="1">
+        <v>413</v>
+      </c>
+      <c r="B414" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" s="1">
+        <v>414</v>
+      </c>
+      <c r="B415" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" s="1">
+        <v>415</v>
+      </c>
+      <c r="B416" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" s="1">
+        <v>416</v>
+      </c>
+      <c r="B417" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" s="1">
+        <v>417</v>
+      </c>
+      <c r="B418" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" s="1">
+        <v>418</v>
+      </c>
+      <c r="B419" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" s="1">
+        <v>419</v>
+      </c>
+      <c r="B420" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" s="1">
+        <v>420</v>
+      </c>
+      <c r="B421" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" s="1">
+        <v>421</v>
+      </c>
+      <c r="B422" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" s="1">
+        <v>422</v>
+      </c>
+      <c r="B423" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" s="1">
+        <v>423</v>
+      </c>
+      <c r="B424" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" s="1">
+        <v>424</v>
+      </c>
+      <c r="B425" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" s="1">
+        <v>425</v>
+      </c>
+      <c r="B426" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" s="1">
+        <v>426</v>
+      </c>
+      <c r="B427" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" s="1">
+        <v>427</v>
+      </c>
+      <c r="B428" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" s="1">
+        <v>428</v>
+      </c>
+      <c r="B429" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" s="1">
+        <v>429</v>
+      </c>
+      <c r="B430" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" s="1">
+        <v>430</v>
+      </c>
+      <c r="B431" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" s="1">
+        <v>431</v>
+      </c>
+      <c r="B432" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" s="1">
+        <v>432</v>
+      </c>
+      <c r="B433" s="1">
+        <v>14.395</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="1">
+        <v>433</v>
+      </c>
+      <c r="B434" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" s="1">
+        <v>434</v>
+      </c>
+      <c r="B435" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" s="1">
+        <v>435</v>
+      </c>
+      <c r="B436" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" s="1">
+        <v>436</v>
+      </c>
+      <c r="B437" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" s="1">
+        <v>437</v>
+      </c>
+      <c r="B438" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" s="1">
+        <v>438</v>
+      </c>
+      <c r="B439" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" s="1">
+        <v>439</v>
+      </c>
+      <c r="B440" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" s="1">
+        <v>440</v>
+      </c>
+      <c r="B441" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" s="1">
+        <v>441</v>
+      </c>
+      <c r="B442" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" s="1">
+        <v>442</v>
+      </c>
+      <c r="B443" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" s="1">
+        <v>443</v>
+      </c>
+      <c r="B444" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" s="1">
+        <v>444</v>
+      </c>
+      <c r="B445" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" s="1">
+        <v>445</v>
+      </c>
+      <c r="B446" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" s="1">
+        <v>446</v>
+      </c>
+      <c r="B447" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" s="1">
+        <v>447</v>
+      </c>
+      <c r="B448" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" s="1">
+        <v>448</v>
+      </c>
+      <c r="B449" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" s="1">
+        <v>449</v>
+      </c>
+      <c r="B450" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" s="1">
+        <v>450</v>
+      </c>
+      <c r="B451" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" s="1">
+        <v>451</v>
+      </c>
+      <c r="B452" s="1">
+        <v>14.395</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" s="1">
+        <v>452</v>
+      </c>
+      <c r="B453" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" s="1">
+        <v>453</v>
+      </c>
+      <c r="B454" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" s="1">
+        <v>454</v>
+      </c>
+      <c r="B455" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" s="1">
+        <v>455</v>
+      </c>
+      <c r="B456" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" s="1">
+        <v>456</v>
+      </c>
+      <c r="B457" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" s="1">
+        <v>457</v>
+      </c>
+      <c r="B458" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" s="1">
+        <v>458</v>
+      </c>
+      <c r="B459" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" s="1">
+        <v>459</v>
+      </c>
+      <c r="B460" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" s="1">
+        <v>460</v>
+      </c>
+      <c r="B461" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" s="1">
+        <v>461</v>
+      </c>
+      <c r="B462" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" s="1">
+        <v>462</v>
+      </c>
+      <c r="B463" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" s="1">
+        <v>463</v>
+      </c>
+      <c r="B464" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" s="1">
+        <v>464</v>
+      </c>
+      <c r="B465" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" s="1">
+        <v>465</v>
+      </c>
+      <c r="B466" s="1">
+        <v>4.1079999999999997</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" s="1">
+        <v>466</v>
+      </c>
+      <c r="B467" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" s="1">
+        <v>467</v>
+      </c>
+      <c r="B468" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" s="1">
+        <v>468</v>
+      </c>
+      <c r="B469" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" s="1">
+        <v>469</v>
+      </c>
+      <c r="B470" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" s="1">
+        <v>470</v>
+      </c>
+      <c r="B471" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" s="1">
+        <v>471</v>
+      </c>
+      <c r="B472" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" s="1">
+        <v>472</v>
+      </c>
+      <c r="B473" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" s="1">
+        <v>473</v>
+      </c>
+      <c r="B474" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" s="1">
+        <v>474</v>
+      </c>
+      <c r="B475" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" s="1">
+        <v>475</v>
+      </c>
+      <c r="B476" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" s="1">
+        <v>476</v>
+      </c>
+      <c r="B477" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" s="1">
+        <v>477</v>
+      </c>
+      <c r="B478" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" s="1">
+        <v>478</v>
+      </c>
+      <c r="B479" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" s="1">
+        <v>479</v>
+      </c>
+      <c r="B480" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" s="1">
+        <v>480</v>
+      </c>
+      <c r="B481" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" s="1">
+        <v>481</v>
+      </c>
+      <c r="B482" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" s="1">
+        <v>482</v>
+      </c>
+      <c r="B483" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" s="1">
+        <v>483</v>
+      </c>
+      <c r="B484" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" s="1">
+        <v>484</v>
+      </c>
+      <c r="B485" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" s="1">
+        <v>485</v>
+      </c>
+      <c r="B486" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" s="1">
+        <v>486</v>
+      </c>
+      <c r="B487" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="1">
+        <v>487</v>
+      </c>
+      <c r="B488" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" s="1">
+        <v>488</v>
+      </c>
+      <c r="B489" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" s="1">
+        <v>489</v>
+      </c>
+      <c r="B490" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" s="1">
+        <v>490</v>
+      </c>
+      <c r="B491" s="1">
+        <v>4.1070000000000002</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" s="1">
+        <v>491</v>
+      </c>
+      <c r="B492" s="1">
+        <v>14.398</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" s="1">
+        <v>492</v>
+      </c>
+      <c r="B493" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" s="1">
+        <v>493</v>
+      </c>
+      <c r="B494" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" s="1">
+        <v>494</v>
+      </c>
+      <c r="B495" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" s="1">
+        <v>495</v>
+      </c>
+      <c r="B496" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" s="1">
+        <v>496</v>
+      </c>
+      <c r="B497" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" s="1">
+        <v>497</v>
+      </c>
+      <c r="B498" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" s="1">
+        <v>498</v>
+      </c>
+      <c r="B499" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" s="1">
+        <v>499</v>
+      </c>
+      <c r="B500" s="1">
+        <v>14.394</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" s="1">
+        <v>500</v>
+      </c>
+      <c r="B501" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" s="1">
+        <v>501</v>
+      </c>
+      <c r="B502" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" s="1">
+        <v>502</v>
+      </c>
+      <c r="B503" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" s="1">
+        <v>503</v>
+      </c>
+      <c r="B504" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" s="1">
+        <v>504</v>
+      </c>
+      <c r="B505" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" s="1">
+        <v>505</v>
+      </c>
+      <c r="B506" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" s="1">
+        <v>506</v>
+      </c>
+      <c r="B507" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" s="1">
+        <v>507</v>
+      </c>
+      <c r="B508" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" s="1">
+        <v>508</v>
+      </c>
+      <c r="B509" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" s="1">
+        <v>509</v>
+      </c>
+      <c r="B510" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" s="1">
+        <v>510</v>
+      </c>
+      <c r="B511" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" s="1">
+        <v>511</v>
+      </c>
+      <c r="B512" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" s="1">
+        <v>512</v>
+      </c>
+      <c r="B513" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" s="1">
+        <v>513</v>
+      </c>
+      <c r="B514" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" s="1">
+        <v>514</v>
+      </c>
+      <c r="B515" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" s="1">
+        <v>515</v>
+      </c>
+      <c r="B516" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" s="1">
+        <v>516</v>
+      </c>
+      <c r="B517" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" s="1">
+        <v>517</v>
+      </c>
+      <c r="B518" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" s="1">
+        <v>518</v>
+      </c>
+      <c r="B519" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" s="1">
+        <v>519</v>
+      </c>
+      <c r="B520" s="1">
+        <v>14.395</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" s="1">
+        <v>520</v>
+      </c>
+      <c r="B521" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" s="1">
+        <v>521</v>
+      </c>
+      <c r="B522" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" s="1">
+        <v>522</v>
+      </c>
+      <c r="B523" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" s="1">
+        <v>523</v>
+      </c>
+      <c r="B524" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" s="1">
+        <v>524</v>
+      </c>
+      <c r="B525" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" s="1">
+        <v>525</v>
+      </c>
+      <c r="B526" s="1">
+        <v>14.398</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" s="1">
+        <v>526</v>
+      </c>
+      <c r="B527" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" s="1">
+        <v>527</v>
+      </c>
+      <c r="B528" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" s="1">
+        <v>528</v>
+      </c>
+      <c r="B529" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" s="1">
+        <v>529</v>
+      </c>
+      <c r="B530" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" s="1">
+        <v>530</v>
+      </c>
+      <c r="B531" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" s="1">
+        <v>531</v>
+      </c>
+      <c r="B532" s="1">
+        <v>14.398999999999999</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" s="1">
+        <v>532</v>
+      </c>
+      <c r="B533" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" s="1">
+        <v>533</v>
+      </c>
+      <c r="B534" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" s="1">
+        <v>534</v>
+      </c>
+      <c r="B535" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" s="1">
+        <v>535</v>
+      </c>
+      <c r="B536" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" s="1">
+        <v>536</v>
+      </c>
+      <c r="B537" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" s="1">
+        <v>537</v>
+      </c>
+      <c r="B538" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" s="1">
+        <v>538</v>
+      </c>
+      <c r="B539" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" s="1">
+        <v>539</v>
+      </c>
+      <c r="B540" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" s="1">
+        <v>540</v>
+      </c>
+      <c r="B541" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" s="1">
+        <v>541</v>
+      </c>
+      <c r="B542" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" s="1">
+        <v>542</v>
+      </c>
+      <c r="B543" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" s="1">
+        <v>543</v>
+      </c>
+      <c r="B544" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" s="1">
+        <v>544</v>
+      </c>
+      <c r="B545" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" s="1">
+        <v>545</v>
+      </c>
+      <c r="B546" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" s="1">
+        <v>546</v>
+      </c>
+      <c r="B547" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" s="1">
+        <v>547</v>
+      </c>
+      <c r="B548" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" s="1">
+        <v>548</v>
+      </c>
+      <c r="B549" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" s="1">
+        <v>549</v>
+      </c>
+      <c r="B550" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" s="1">
+        <v>550</v>
+      </c>
+      <c r="B551" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" s="1">
+        <v>551</v>
+      </c>
+      <c r="B552" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" s="1">
+        <v>552</v>
+      </c>
+      <c r="B553" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" s="1">
+        <v>553</v>
+      </c>
+      <c r="B554" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" s="1">
+        <v>554</v>
+      </c>
+      <c r="B555" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" s="1">
+        <v>555</v>
+      </c>
+      <c r="B556" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" s="1">
+        <v>556</v>
+      </c>
+      <c r="B557" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" s="1">
+        <v>557</v>
+      </c>
+      <c r="B558" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" s="1">
+        <v>558</v>
+      </c>
+      <c r="B559" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" s="1">
+        <v>559</v>
+      </c>
+      <c r="B560" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" s="1">
+        <v>560</v>
+      </c>
+      <c r="B561" s="1">
+        <v>14.398</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" s="1">
+        <v>561</v>
+      </c>
+      <c r="B562" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" s="1">
+        <v>562</v>
+      </c>
+      <c r="B563" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" s="1">
+        <v>563</v>
+      </c>
+      <c r="B564" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" s="1">
+        <v>564</v>
+      </c>
+      <c r="B565" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" s="1">
+        <v>565</v>
+      </c>
+      <c r="B566" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" s="1">
+        <v>566</v>
+      </c>
+      <c r="B567" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" s="1">
+        <v>567</v>
+      </c>
+      <c r="B568" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" s="1">
+        <v>568</v>
+      </c>
+      <c r="B569" s="1">
+        <v>14.395</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" s="1">
+        <v>569</v>
+      </c>
+      <c r="B570" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" s="1">
+        <v>570</v>
+      </c>
+      <c r="B571" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" s="1">
+        <v>571</v>
+      </c>
+      <c r="B572" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" s="1">
+        <v>572</v>
+      </c>
+      <c r="B573" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" s="1">
+        <v>573</v>
+      </c>
+      <c r="B574" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" s="1">
+        <v>574</v>
+      </c>
+      <c r="B575" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" s="1">
+        <v>575</v>
+      </c>
+      <c r="B576" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" s="1">
+        <v>576</v>
+      </c>
+      <c r="B577" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" s="1">
+        <v>577</v>
+      </c>
+      <c r="B578" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" s="1">
+        <v>578</v>
+      </c>
+      <c r="B579" s="1"/>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" s="1">
+        <v>579</v>
+      </c>
+      <c r="B580" s="1"/>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" s="1">
+        <v>580</v>
+      </c>
+      <c r="B581" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" s="1">
+        <v>581</v>
+      </c>
+      <c r="B582" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" s="1">
+        <v>582</v>
+      </c>
+      <c r="B583" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" s="1">
+        <v>583</v>
+      </c>
+      <c r="B584" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" s="1">
+        <v>584</v>
+      </c>
+      <c r="B585" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" s="1">
+        <v>585</v>
+      </c>
+      <c r="B586" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587" s="1">
+        <v>586</v>
+      </c>
+      <c r="B587" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" s="1">
+        <v>587</v>
+      </c>
+      <c r="B588" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589" s="1">
+        <v>588</v>
+      </c>
+      <c r="B589" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590" s="1">
+        <v>589</v>
+      </c>
+      <c r="B590" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591" s="1">
+        <v>590</v>
+      </c>
+      <c r="B591" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592" s="1">
+        <v>591</v>
+      </c>
+      <c r="B592" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593" s="1">
+        <v>592</v>
+      </c>
+      <c r="B593" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594" s="1">
+        <v>593</v>
+      </c>
+      <c r="B594" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595" s="1">
+        <v>594</v>
+      </c>
+      <c r="B595" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596" s="1">
+        <v>595</v>
+      </c>
+      <c r="B596" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597" s="1">
+        <v>596</v>
+      </c>
+      <c r="B597" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598" s="1">
+        <v>597</v>
+      </c>
+      <c r="B598" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599" s="1">
+        <v>598</v>
+      </c>
+      <c r="B599" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A600" s="1">
+        <v>599</v>
+      </c>
+      <c r="B600" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601" s="1">
+        <v>600</v>
+      </c>
+      <c r="B601" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A602" s="1">
+        <v>601</v>
+      </c>
+      <c r="B602" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603" s="1">
+        <v>602</v>
+      </c>
+      <c r="B603" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604" s="1">
+        <v>603</v>
+      </c>
+      <c r="B604" s="1">
+        <v>14.398999999999999</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A605" s="1">
+        <v>604</v>
+      </c>
+      <c r="B605" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606" s="1">
+        <v>605</v>
+      </c>
+      <c r="B606" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A607" s="1">
+        <v>606</v>
+      </c>
+      <c r="B607" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A608" s="1">
+        <v>607</v>
+      </c>
+      <c r="B608" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609" s="1">
+        <v>608</v>
+      </c>
+      <c r="B609" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A610" s="1">
+        <v>609</v>
+      </c>
+      <c r="B610" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A611" s="1">
+        <v>610</v>
+      </c>
+      <c r="B611" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A612" s="1">
+        <v>611</v>
+      </c>
+      <c r="B612" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A613" s="1">
+        <v>612</v>
+      </c>
+      <c r="B613" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A614" s="1">
+        <v>613</v>
+      </c>
+      <c r="B614" s="1">
+        <v>4.1070000000000002</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A615" s="1">
+        <v>614</v>
+      </c>
+      <c r="B615" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A616" s="1">
+        <v>615</v>
+      </c>
+      <c r="B616" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A617" s="1">
+        <v>616</v>
+      </c>
+      <c r="B617" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A618" s="1">
+        <v>617</v>
+      </c>
+      <c r="B618" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A619" s="1">
+        <v>618</v>
+      </c>
+      <c r="B619" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620" s="1">
+        <v>619</v>
+      </c>
+      <c r="B620" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A621" s="1">
+        <v>620</v>
+      </c>
+      <c r="B621" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A622" s="1">
+        <v>621</v>
+      </c>
+      <c r="B622" s="1">
+        <v>14.398999999999999</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A623" s="1">
+        <v>622</v>
+      </c>
+      <c r="B623" s="1">
+        <v>23.888000000000002</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A624" s="1">
+        <v>623</v>
+      </c>
+      <c r="B624" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625" s="1">
+        <v>624</v>
+      </c>
+      <c r="B625" s="1">
+        <v>14.398</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626" s="1">
+        <v>625</v>
+      </c>
+      <c r="B626" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627" s="1">
+        <v>626</v>
+      </c>
+      <c r="B627" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628" s="1">
+        <v>627</v>
+      </c>
+      <c r="B628" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A629" s="1">
+        <v>628</v>
+      </c>
+      <c r="B629" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630" s="1">
+        <v>629</v>
+      </c>
+      <c r="B630" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A631" s="1">
+        <v>630</v>
+      </c>
+      <c r="B631" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632" s="1">
+        <v>631</v>
+      </c>
+      <c r="B632" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633" s="1">
+        <v>632</v>
+      </c>
+      <c r="B633" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634" s="1">
+        <v>633</v>
+      </c>
+      <c r="B634" s="1"/>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A635" s="1">
+        <v>634</v>
+      </c>
+      <c r="B635" s="1"/>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A636" s="1">
+        <v>635</v>
+      </c>
+      <c r="B636" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A637" s="1">
+        <v>636</v>
+      </c>
+      <c r="B637" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A638" s="1">
+        <v>637</v>
+      </c>
+      <c r="B638" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639" s="1">
+        <v>638</v>
+      </c>
+      <c r="B639" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A640" s="1">
+        <v>639</v>
+      </c>
+      <c r="B640" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A641" s="1">
+        <v>640</v>
+      </c>
+      <c r="B641" s="1"/>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A642" s="1">
+        <v>641</v>
+      </c>
+      <c r="B642" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A643" s="1">
+        <v>642</v>
+      </c>
+      <c r="B643" s="1"/>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A644" s="1">
+        <v>643</v>
+      </c>
+      <c r="B644" s="1"/>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A645" s="1">
+        <v>644</v>
+      </c>
+      <c r="B645" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A646" s="1">
+        <v>645</v>
+      </c>
+      <c r="B646" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647" s="1">
+        <v>646</v>
+      </c>
+      <c r="B647" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A648" s="1">
+        <v>647</v>
+      </c>
+      <c r="B648" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A649" s="1">
+        <v>648</v>
+      </c>
+      <c r="B649" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A650" s="1">
+        <v>649</v>
+      </c>
+      <c r="B650" s="1">
+        <v>4.1070000000000002</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A651" s="1">
+        <v>650</v>
+      </c>
+      <c r="B651" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A652" s="1">
+        <v>651</v>
+      </c>
+      <c r="B652" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A653" s="1">
+        <v>652</v>
+      </c>
+      <c r="B653" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A654" s="1">
+        <v>653</v>
+      </c>
+      <c r="B654" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A655" s="1">
+        <v>654</v>
+      </c>
+      <c r="B655" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A656" s="1">
+        <v>655</v>
+      </c>
+      <c r="B656" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A657" s="1">
+        <v>656</v>
+      </c>
+      <c r="B657" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A658" s="1">
+        <v>657</v>
+      </c>
+      <c r="B658" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A659" s="1">
+        <v>658</v>
+      </c>
+      <c r="B659" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A660" s="1">
+        <v>659</v>
+      </c>
+      <c r="B660" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A661" s="1">
+        <v>660</v>
+      </c>
+      <c r="B661" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A662" s="1">
+        <v>661</v>
+      </c>
+      <c r="B662" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A663" s="1">
+        <v>662</v>
+      </c>
+      <c r="B663" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A664" s="1">
+        <v>663</v>
+      </c>
+      <c r="B664" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A665" s="1">
+        <v>664</v>
+      </c>
+      <c r="B665" s="1">
+        <v>16.73</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A666" s="1">
+        <v>665</v>
+      </c>
+      <c r="B666" s="1">
+        <v>14.395</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A667" s="1">
+        <v>666</v>
+      </c>
+      <c r="B667" s="1">
+        <v>14.398</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A668" s="1">
+        <v>667</v>
+      </c>
+      <c r="B668" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A669" s="1">
+        <v>668</v>
+      </c>
+      <c r="B669" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A670" s="1">
+        <v>669</v>
+      </c>
+      <c r="B670" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A671" s="1">
+        <v>670</v>
+      </c>
+      <c r="B671" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A672" s="1">
+        <v>671</v>
+      </c>
+      <c r="B672" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A673" s="1">
+        <v>672</v>
+      </c>
+      <c r="B673" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A674" s="1">
+        <v>673</v>
+      </c>
+      <c r="B674" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A675" s="1">
+        <v>674</v>
+      </c>
+      <c r="B675" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A676" s="1">
+        <v>675</v>
+      </c>
+      <c r="B676" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A677" s="1">
+        <v>676</v>
+      </c>
+      <c r="B677" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A678" s="1">
+        <v>677</v>
+      </c>
+      <c r="B678" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A679" s="1">
+        <v>678</v>
+      </c>
+      <c r="B679" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A680" s="1">
+        <v>679</v>
+      </c>
+      <c r="B680" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A681" s="1">
+        <v>680</v>
+      </c>
+      <c r="B681" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A682" s="1">
+        <v>681</v>
+      </c>
+      <c r="B682" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A683" s="1">
+        <v>682</v>
+      </c>
+      <c r="B683" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A684" s="1">
+        <v>683</v>
+      </c>
+      <c r="B684" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A685" s="1">
+        <v>684</v>
+      </c>
+      <c r="B685" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A686" s="1">
+        <v>685</v>
+      </c>
+      <c r="B686" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A687" s="1">
+        <v>686</v>
+      </c>
+      <c r="B687" s="1"/>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A688" s="1">
+        <v>687</v>
+      </c>
+      <c r="B688" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A689" s="1">
+        <v>688</v>
+      </c>
+      <c r="B689" s="1"/>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A690" s="1">
+        <v>689</v>
+      </c>
+      <c r="B690" s="1"/>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A691" s="1">
+        <v>690</v>
+      </c>
+      <c r="B691" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A692" s="1">
+        <v>691</v>
+      </c>
+      <c r="B692" s="1">
+        <v>39.360999999999997</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A693" s="1">
+        <v>692</v>
+      </c>
+      <c r="B693" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A694" s="1">
+        <v>693</v>
+      </c>
+      <c r="B694" s="1"/>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A695" s="1">
+        <v>694</v>
+      </c>
+      <c r="B695" s="1"/>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A696" s="1">
+        <v>695</v>
+      </c>
+      <c r="B696" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A697" s="1">
+        <v>696</v>
+      </c>
+      <c r="B697" s="1"/>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A698" s="1">
+        <v>697</v>
+      </c>
+      <c r="B698" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A699" s="1">
+        <v>698</v>
+      </c>
+      <c r="B699" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A700" s="1">
+        <v>699</v>
+      </c>
+      <c r="B700" s="1"/>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A701" s="1">
+        <v>700</v>
+      </c>
+      <c r="B701" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A702" s="1">
+        <v>701</v>
+      </c>
+      <c r="B702" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A703" s="1">
+        <v>702</v>
+      </c>
+      <c r="B703" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A704" s="1">
+        <v>703</v>
+      </c>
+      <c r="B704" s="1"/>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A705" s="1">
+        <v>704</v>
+      </c>
+      <c r="B705" s="1"/>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A706" s="1">
+        <v>705</v>
+      </c>
+      <c r="B706" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A707" s="1">
+        <v>706</v>
+      </c>
+      <c r="B707" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A708" s="1">
+        <v>707</v>
+      </c>
+      <c r="B708" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A709" s="1">
+        <v>708</v>
+      </c>
+      <c r="B709" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A710" s="1">
+        <v>709</v>
+      </c>
+      <c r="B710" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A711" s="1">
+        <v>710</v>
+      </c>
+      <c r="B711" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A712" s="1">
+        <v>711</v>
+      </c>
+      <c r="B712" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A713" s="1">
+        <v>712</v>
+      </c>
+      <c r="B713" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A714" s="1">
+        <v>713</v>
+      </c>
+      <c r="B714" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A715" s="1">
+        <v>714</v>
+      </c>
+      <c r="B715" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A716" s="1">
+        <v>715</v>
+      </c>
+      <c r="B716" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A717" s="1">
+        <v>716</v>
+      </c>
+      <c r="B717" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A718" s="1">
+        <v>717</v>
+      </c>
+      <c r="B718" s="1">
+        <v>14.394</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A719" s="1">
+        <v>718</v>
+      </c>
+      <c r="B719" s="1">
+        <v>14.395</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A720" s="1">
+        <v>719</v>
+      </c>
+      <c r="B720" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A721" s="1">
+        <v>720</v>
+      </c>
+      <c r="B721" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A722" s="1">
+        <v>721</v>
+      </c>
+      <c r="B722" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A723" s="1">
+        <v>722</v>
+      </c>
+      <c r="B723" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A724" s="1">
+        <v>723</v>
+      </c>
+      <c r="B724" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A725" s="1">
+        <v>724</v>
+      </c>
+      <c r="B725" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A726" s="1">
+        <v>725</v>
+      </c>
+      <c r="B726" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A727" s="1">
+        <v>726</v>
+      </c>
+      <c r="B727" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A728" s="1">
+        <v>727</v>
+      </c>
+      <c r="B728" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A729" s="1">
+        <v>728</v>
+      </c>
+      <c r="B729" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A730" s="1">
+        <v>729</v>
+      </c>
+      <c r="B730" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A731" s="1">
+        <v>730</v>
+      </c>
+      <c r="B731" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A732" s="1">
+        <v>731</v>
+      </c>
+      <c r="B732" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A733" s="1">
+        <v>732</v>
+      </c>
+      <c r="B733" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A734" s="1">
+        <v>733</v>
+      </c>
+      <c r="B734" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A735" s="1">
+        <v>734</v>
+      </c>
+      <c r="B735" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A736" s="1">
+        <v>735</v>
+      </c>
+      <c r="B736" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A737" s="1">
+        <v>736</v>
+      </c>
+      <c r="B737" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A738" s="1">
+        <v>737</v>
+      </c>
+      <c r="B738" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A739" s="1">
+        <v>738</v>
+      </c>
+      <c r="B739" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A740" s="1">
+        <v>739</v>
+      </c>
+      <c r="B740" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A741" s="1">
+        <v>740</v>
+      </c>
+      <c r="B741" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A742" s="1">
+        <v>741</v>
+      </c>
+      <c r="B742" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A743" s="1">
+        <v>742</v>
+      </c>
+      <c r="B743" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A744" s="1">
+        <v>743</v>
+      </c>
+      <c r="B744" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A745" s="1">
+        <v>744</v>
+      </c>
+      <c r="B745" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A746" s="1">
+        <v>745</v>
+      </c>
+      <c r="B746" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A747" s="1">
+        <v>746</v>
+      </c>
+      <c r="B747" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A748" s="1">
+        <v>747</v>
+      </c>
+      <c r="B748" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A749" s="1">
+        <v>748</v>
+      </c>
+      <c r="B749" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A750" s="1">
+        <v>749</v>
+      </c>
+      <c r="B750" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A751" s="1">
+        <v>750</v>
+      </c>
+      <c r="B751" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A752" s="1">
+        <v>751</v>
+      </c>
+      <c r="B752" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A753" s="1">
+        <v>752</v>
+      </c>
+      <c r="B753" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A754" s="1">
+        <v>753</v>
+      </c>
+      <c r="B754" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A755" s="1">
+        <v>754</v>
+      </c>
+      <c r="B755" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A756" s="1">
+        <v>755</v>
+      </c>
+      <c r="B756" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A757" s="1">
+        <v>756</v>
+      </c>
+      <c r="B757" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A758" s="1">
+        <v>757</v>
+      </c>
+      <c r="B758" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A759" s="1">
+        <v>758</v>
+      </c>
+      <c r="B759" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A760" s="1">
+        <v>759</v>
+      </c>
+      <c r="B760" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A761" s="1">
+        <v>760</v>
+      </c>
+      <c r="B761" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A762" s="1">
+        <v>761</v>
+      </c>
+      <c r="B762" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A763" s="1">
+        <v>762</v>
+      </c>
+      <c r="B763" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A764" s="1">
+        <v>763</v>
+      </c>
+      <c r="B764" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A765" s="1">
+        <v>764</v>
+      </c>
+      <c r="B765" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A766" s="1">
+        <v>765</v>
+      </c>
+      <c r="B766" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A767" s="1">
+        <v>766</v>
+      </c>
+      <c r="B767" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A768" s="1">
+        <v>767</v>
+      </c>
+      <c r="B768" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A769" s="1">
+        <v>768</v>
+      </c>
+      <c r="B769" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A770" s="1">
+        <v>769</v>
+      </c>
+      <c r="B770" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A771" s="1">
+        <v>770</v>
+      </c>
+      <c r="B771" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A772" s="1">
+        <v>771</v>
+      </c>
+      <c r="B772" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A773" s="1">
+        <v>772</v>
+      </c>
+      <c r="B773" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A774" s="1">
+        <v>773</v>
+      </c>
+      <c r="B774" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A775" s="1">
+        <v>774</v>
+      </c>
+      <c r="B775" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A776" s="1">
+        <v>775</v>
+      </c>
+      <c r="B776" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A777" s="1">
+        <v>776</v>
+      </c>
+      <c r="B777" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A778" s="1">
+        <v>777</v>
+      </c>
+      <c r="B778" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A779" s="1">
+        <v>778</v>
+      </c>
+      <c r="B779" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A780" s="1">
+        <v>779</v>
+      </c>
+      <c r="B780" s="1">
+        <v>4.1070000000000002</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A781" s="1">
+        <v>780</v>
+      </c>
+      <c r="B781" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A782" s="1">
+        <v>781</v>
+      </c>
+      <c r="B782" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A783" s="1">
+        <v>782</v>
+      </c>
+      <c r="B783" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A784" s="1">
+        <v>783</v>
+      </c>
+      <c r="B784" s="1">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A785" s="1">
+        <v>784</v>
+      </c>
+      <c r="B785" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A786" s="1">
+        <v>785</v>
+      </c>
+      <c r="B786" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A787" s="1">
+        <v>786</v>
+      </c>
+      <c r="B787" s="1">
+        <v>14.398</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A788" s="1">
+        <v>787</v>
+      </c>
+      <c r="B788" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A789" s="1">
+        <v>788</v>
+      </c>
+      <c r="B789" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A790" s="1">
+        <v>789</v>
+      </c>
+      <c r="B790" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A791" s="1">
+        <v>790</v>
+      </c>
+      <c r="B791" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A792" s="1">
+        <v>791</v>
+      </c>
+      <c r="B792" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A793" s="1">
+        <v>792</v>
+      </c>
+      <c r="B793" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A794" s="1">
+        <v>793</v>
+      </c>
+      <c r="B794" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A795" s="1">
+        <v>794</v>
+      </c>
+      <c r="B795" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A796" s="1">
+        <v>795</v>
+      </c>
+      <c r="B796" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A797" s="1">
+        <v>796</v>
+      </c>
+      <c r="B797" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A798" s="1">
+        <v>797</v>
+      </c>
+      <c r="B798" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A799" s="1">
+        <v>798</v>
+      </c>
+      <c r="B799" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A800" s="1">
+        <v>799</v>
+      </c>
+      <c r="B800" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A801" s="1">
+        <v>800</v>
+      </c>
+      <c r="B801" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A802" s="1">
+        <v>801</v>
+      </c>
+      <c r="B802" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A803" s="1">
+        <v>802</v>
+      </c>
+      <c r="B803" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A804" s="1">
+        <v>803</v>
+      </c>
+      <c r="B804" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A805" s="1">
+        <v>804</v>
+      </c>
+      <c r="B805" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A806" s="1">
+        <v>805</v>
+      </c>
+      <c r="B806" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A807" s="1">
+        <v>806</v>
+      </c>
+      <c r="B807" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A808" s="1">
+        <v>807</v>
+      </c>
+      <c r="B808" s="1">
+        <v>14.395</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A809" s="1">
+        <v>808</v>
+      </c>
+      <c r="B809" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A810" s="1">
+        <v>809</v>
+      </c>
+      <c r="B810" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A811" s="1">
+        <v>810</v>
+      </c>
+      <c r="B811" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A812" s="1">
+        <v>811</v>
+      </c>
+      <c r="B812" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A813" s="1">
+        <v>812</v>
+      </c>
+      <c r="B813" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A814" s="1">
+        <v>813</v>
+      </c>
+      <c r="B814" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A815" s="1">
+        <v>814</v>
+      </c>
+      <c r="B815" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A816" s="1">
+        <v>815</v>
+      </c>
+      <c r="B816" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A817" s="1">
+        <v>816</v>
+      </c>
+      <c r="B817" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A818" s="1">
+        <v>817</v>
+      </c>
+      <c r="B818" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A819" s="1">
+        <v>818</v>
+      </c>
+      <c r="B819" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A820" s="1">
+        <v>819</v>
+      </c>
+      <c r="B820" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A821" s="1">
+        <v>820</v>
+      </c>
+      <c r="B821" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A822" s="1">
+        <v>821</v>
+      </c>
+      <c r="B822" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A823" s="1">
+        <v>822</v>
+      </c>
+      <c r="B823" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A824" s="1">
+        <v>823</v>
+      </c>
+      <c r="B824" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A825" s="1">
+        <v>824</v>
+      </c>
+      <c r="B825" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A826" s="1">
+        <v>825</v>
+      </c>
+      <c r="B826" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A827" s="1">
+        <v>826</v>
+      </c>
+      <c r="B827" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A828" s="1">
+        <v>827</v>
+      </c>
+      <c r="B828" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A829" s="1">
+        <v>828</v>
+      </c>
+      <c r="B829" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A830" s="1">
+        <v>829</v>
+      </c>
+      <c r="B830" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A831" s="1">
+        <v>830</v>
+      </c>
+      <c r="B831" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A832" s="1">
+        <v>831</v>
+      </c>
+      <c r="B832" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A833" s="1">
+        <v>832</v>
+      </c>
+      <c r="B833" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A834" s="1">
+        <v>833</v>
+      </c>
+      <c r="B834" s="1">
+        <v>14.398</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A835" s="1">
+        <v>834</v>
+      </c>
+      <c r="B835" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A836" s="1">
+        <v>835</v>
+      </c>
+      <c r="B836" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A837" s="1">
+        <v>836</v>
+      </c>
+      <c r="B837" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A838" s="1">
+        <v>837</v>
+      </c>
+      <c r="B838" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A839" s="1">
+        <v>838</v>
+      </c>
+      <c r="B839" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A840" s="1">
+        <v>839</v>
+      </c>
+      <c r="B840" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A841" s="1">
+        <v>840</v>
+      </c>
+      <c r="B841" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A842" s="1">
+        <v>841</v>
+      </c>
+      <c r="B842" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A843" s="1">
+        <v>842</v>
+      </c>
+      <c r="B843" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A844" s="1">
+        <v>843</v>
+      </c>
+      <c r="B844" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A845" s="1">
+        <v>844</v>
+      </c>
+      <c r="B845" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A846" s="1">
+        <v>845</v>
+      </c>
+      <c r="B846" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A847" s="1">
+        <v>846</v>
+      </c>
+      <c r="B847" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A848" s="1">
+        <v>847</v>
+      </c>
+      <c r="B848" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A849" s="1">
+        <v>848</v>
+      </c>
+      <c r="B849" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A850" s="1">
+        <v>849</v>
+      </c>
+      <c r="B850" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A851" s="1">
+        <v>850</v>
+      </c>
+      <c r="B851" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A852" s="1">
+        <v>851</v>
+      </c>
+      <c r="B852" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A853" s="1">
+        <v>852</v>
+      </c>
+      <c r="B853" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A854" s="1">
+        <v>853</v>
+      </c>
+      <c r="B854" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A855" s="1">
+        <v>854</v>
+      </c>
+      <c r="B855" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A856" s="1">
+        <v>855</v>
+      </c>
+      <c r="B856" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A857" s="1">
+        <v>856</v>
+      </c>
+      <c r="B857" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A858" s="1">
+        <v>857</v>
+      </c>
+      <c r="B858" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A859" s="1">
+        <v>858</v>
+      </c>
+      <c r="B859" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A860" s="1">
+        <v>859</v>
+      </c>
+      <c r="B860" s="1">
+        <v>14.398</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A861" s="1">
+        <v>860</v>
+      </c>
+      <c r="B861" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A862" s="1">
+        <v>861</v>
+      </c>
+      <c r="B862" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A863" s="1">
+        <v>862</v>
+      </c>
+      <c r="B863" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A864" s="1">
+        <v>863</v>
+      </c>
+      <c r="B864" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A865" s="1">
+        <v>864</v>
+      </c>
+      <c r="B865" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A866" s="1">
+        <v>865</v>
+      </c>
+      <c r="B866" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A867" s="1">
+        <v>866</v>
+      </c>
+      <c r="B867" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A868" s="1">
+        <v>867</v>
+      </c>
+      <c r="B868" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A869" s="1">
+        <v>868</v>
+      </c>
+      <c r="B869" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A870" s="1">
+        <v>869</v>
+      </c>
+      <c r="B870" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A871" s="1">
+        <v>870</v>
+      </c>
+      <c r="B871" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A872" s="1">
+        <v>871</v>
+      </c>
+      <c r="B872" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A873" s="1">
+        <v>872</v>
+      </c>
+      <c r="B873" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A874" s="1">
+        <v>873</v>
+      </c>
+      <c r="B874" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A875" s="1">
+        <v>874</v>
+      </c>
+      <c r="B875" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A876" s="1">
+        <v>875</v>
+      </c>
+      <c r="B876" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A877" s="1">
+        <v>876</v>
+      </c>
+      <c r="B877" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A878" s="1">
+        <v>877</v>
+      </c>
+      <c r="B878" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A879" s="1">
+        <v>878</v>
+      </c>
+      <c r="B879" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A880" s="1">
+        <v>879</v>
+      </c>
+      <c r="B880" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A881" s="1">
+        <v>880</v>
+      </c>
+      <c r="B881" s="1">
+        <v>14.395</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A882" s="1">
+        <v>881</v>
+      </c>
+      <c r="B882" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A883" s="1">
+        <v>882</v>
+      </c>
+      <c r="B883" s="1"/>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A884" s="1">
+        <v>883</v>
+      </c>
+      <c r="B884" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A885" s="1">
+        <v>884</v>
+      </c>
+      <c r="B885" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A886" s="1">
+        <v>885</v>
+      </c>
+      <c r="B886" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A887" s="1">
+        <v>886</v>
+      </c>
+      <c r="B887" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A888" s="1">
+        <v>887</v>
+      </c>
+      <c r="B888" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A889" s="1">
+        <v>888</v>
+      </c>
+      <c r="B889" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A890" s="1">
+        <v>889</v>
+      </c>
+      <c r="B890" s="1">
+        <v>14.398</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A891" s="1">
+        <v>890</v>
+      </c>
+      <c r="B891" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A892" s="1">
+        <v>891</v>
+      </c>
+      <c r="B892" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A893" s="1">
+        <v>892</v>
+      </c>
+      <c r="B893" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A894" s="1">
+        <v>893</v>
+      </c>
+      <c r="B894" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A895" s="1">
+        <v>894</v>
+      </c>
+      <c r="B895" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A896" s="1">
+        <v>895</v>
+      </c>
+      <c r="B896" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A897" s="1">
+        <v>896</v>
+      </c>
+      <c r="B897" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A898" s="1">
+        <v>897</v>
+      </c>
+      <c r="B898" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A899" s="1">
+        <v>898</v>
+      </c>
+      <c r="B899" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A900" s="1">
+        <v>899</v>
+      </c>
+      <c r="B900" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A901" s="1">
+        <v>900</v>
+      </c>
+      <c r="B901" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A902" s="1">
+        <v>901</v>
+      </c>
+      <c r="B902" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A903" s="1">
+        <v>902</v>
+      </c>
+      <c r="B903" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A904" s="1">
+        <v>903</v>
+      </c>
+      <c r="B904" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A905" s="1">
+        <v>904</v>
+      </c>
+      <c r="B905" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A906" s="1">
+        <v>905</v>
+      </c>
+      <c r="B906" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A907" s="1">
+        <v>906</v>
+      </c>
+      <c r="B907" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A908" s="1">
+        <v>907</v>
+      </c>
+      <c r="B908" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A909" s="1">
+        <v>908</v>
+      </c>
+      <c r="B909" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A910" s="1">
+        <v>909</v>
+      </c>
+      <c r="B910" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A911" s="1">
+        <v>910</v>
+      </c>
+      <c r="B911" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A912" s="1">
+        <v>911</v>
+      </c>
+      <c r="B912" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A913" s="1">
+        <v>912</v>
+      </c>
+      <c r="B913" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A914" s="1">
+        <v>913</v>
+      </c>
+      <c r="B914" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A915" s="1">
+        <v>914</v>
+      </c>
+      <c r="B915" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A916" s="1">
+        <v>915</v>
+      </c>
+      <c r="B916" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A917" s="1">
+        <v>916</v>
+      </c>
+      <c r="B917" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A918" s="1">
+        <v>917</v>
+      </c>
+      <c r="B918" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A919" s="1">
+        <v>918</v>
+      </c>
+      <c r="B919" s="1">
+        <v>14.395</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A920" s="1">
+        <v>919</v>
+      </c>
+      <c r="B920" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A921" s="1">
+        <v>920</v>
+      </c>
+      <c r="B921" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A922" s="1">
+        <v>921</v>
+      </c>
+      <c r="B922" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A923" s="1">
+        <v>922</v>
+      </c>
+      <c r="B923" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A924" s="1">
+        <v>923</v>
+      </c>
+      <c r="B924" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A925" s="1">
+        <v>924</v>
+      </c>
+      <c r="B925" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A926" s="1">
+        <v>925</v>
+      </c>
+      <c r="B926" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A927" s="1">
+        <v>926</v>
+      </c>
+      <c r="B927" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A928" s="1">
+        <v>927</v>
+      </c>
+      <c r="B928" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A929" s="1">
+        <v>928</v>
+      </c>
+      <c r="B929" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A930" s="1">
+        <v>929</v>
+      </c>
+      <c r="B930" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A931" s="1">
+        <v>930</v>
+      </c>
+      <c r="B931" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A932" s="1">
+        <v>931</v>
+      </c>
+      <c r="B932" s="1">
+        <v>14.395</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A933" s="1">
+        <v>932</v>
+      </c>
+      <c r="B933" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A934" s="1">
+        <v>933</v>
+      </c>
+      <c r="B934" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A935" s="1">
+        <v>934</v>
+      </c>
+      <c r="B935" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A936" s="1">
+        <v>935</v>
+      </c>
+      <c r="B936" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A937" s="1">
+        <v>936</v>
+      </c>
+      <c r="B937" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A938" s="1">
+        <v>937</v>
+      </c>
+      <c r="B938" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A939" s="1">
+        <v>938</v>
+      </c>
+      <c r="B939" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A940" s="1">
+        <v>939</v>
+      </c>
+      <c r="B940" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A941" s="1">
+        <v>940</v>
+      </c>
+      <c r="B941" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A942" s="1">
+        <v>941</v>
+      </c>
+      <c r="B942" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A943" s="1">
+        <v>942</v>
+      </c>
+      <c r="B943" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A944" s="1">
+        <v>943</v>
+      </c>
+      <c r="B944" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A945" s="1">
+        <v>944</v>
+      </c>
+      <c r="B945" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A946" s="1">
+        <v>945</v>
+      </c>
+      <c r="B946" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A947" s="1">
+        <v>946</v>
+      </c>
+      <c r="B947" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A948" s="1">
+        <v>947</v>
+      </c>
+      <c r="B948" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A949" s="1">
+        <v>948</v>
+      </c>
+      <c r="B949" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A950" s="1">
+        <v>949</v>
+      </c>
+      <c r="B950" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A951" s="1">
+        <v>950</v>
+      </c>
+      <c r="B951" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A952" s="1">
+        <v>951</v>
+      </c>
+      <c r="B952" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A953" s="1">
+        <v>952</v>
+      </c>
+      <c r="B953" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A954" s="1">
+        <v>953</v>
+      </c>
+      <c r="B954" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A955" s="1">
+        <v>954</v>
+      </c>
+      <c r="B955" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A956" s="1">
+        <v>955</v>
+      </c>
+      <c r="B956" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A957" s="1">
+        <v>956</v>
+      </c>
+      <c r="B957" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A958" s="1">
+        <v>957</v>
+      </c>
+      <c r="B958" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A959" s="1">
+        <v>958</v>
+      </c>
+      <c r="B959" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A960" s="1">
+        <v>959</v>
+      </c>
+      <c r="B960" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A961" s="1">
+        <v>960</v>
+      </c>
+      <c r="B961" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A962" s="1">
+        <v>961</v>
+      </c>
+      <c r="B962" s="1">
+        <v>14.398</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A963" s="1">
+        <v>962</v>
+      </c>
+      <c r="B963" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A964" s="1">
+        <v>963</v>
+      </c>
+      <c r="B964" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A965" s="1">
+        <v>964</v>
+      </c>
+      <c r="B965" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A966" s="1">
+        <v>965</v>
+      </c>
+      <c r="B966" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A967" s="1">
+        <v>966</v>
+      </c>
+      <c r="B967" s="1">
+        <v>14.398</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A968" s="1">
+        <v>967</v>
+      </c>
+      <c r="B968" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A969" s="1">
+        <v>968</v>
+      </c>
+      <c r="B969" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A970" s="1">
+        <v>969</v>
+      </c>
+      <c r="B970" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A971" s="1">
+        <v>970</v>
+      </c>
+      <c r="B971" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A972" s="1">
+        <v>971</v>
+      </c>
+      <c r="B972" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A973" s="1">
+        <v>972</v>
+      </c>
+      <c r="B973" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A974" s="1">
+        <v>973</v>
+      </c>
+      <c r="B974" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A975" s="1">
+        <v>974</v>
+      </c>
+      <c r="B975" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A976" s="1">
+        <v>975</v>
+      </c>
+      <c r="B976" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A977" s="1">
+        <v>976</v>
+      </c>
+      <c r="B977" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A978" s="1">
+        <v>977</v>
+      </c>
+      <c r="B978" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A979" s="1">
+        <v>978</v>
+      </c>
+      <c r="B979" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A980" s="1">
+        <v>979</v>
+      </c>
+      <c r="B980" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A981" s="1">
+        <v>980</v>
+      </c>
+      <c r="B981" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A982" s="1">
+        <v>981</v>
+      </c>
+      <c r="B982" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A983" s="1">
+        <v>982</v>
+      </c>
+      <c r="B983" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A984" s="1">
+        <v>983</v>
+      </c>
+      <c r="B984" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A985" s="1">
+        <v>984</v>
+      </c>
+      <c r="B985" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A986" s="1">
+        <v>985</v>
+      </c>
+      <c r="B986" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A987" s="1">
+        <v>986</v>
+      </c>
+      <c r="B987" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A988" s="1">
+        <v>987</v>
+      </c>
+      <c r="B988" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A989" s="1">
+        <v>988</v>
+      </c>
+      <c r="B989" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A990" s="1">
+        <v>989</v>
+      </c>
+      <c r="B990" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A991" s="1">
+        <v>990</v>
+      </c>
+      <c r="B991" s="1">
+        <v>14.395</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A992" s="1">
+        <v>991</v>
+      </c>
+      <c r="B992" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A993" s="1">
+        <v>992</v>
+      </c>
+      <c r="B993" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A994" s="1">
+        <v>993</v>
+      </c>
+      <c r="B994" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A995" s="1">
+        <v>994</v>
+      </c>
+      <c r="B995" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A996" s="1">
+        <v>995</v>
+      </c>
+      <c r="B996" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A997" s="1">
+        <v>996</v>
+      </c>
+      <c r="B997" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A998" s="1">
+        <v>997</v>
+      </c>
+      <c r="B998" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A999" s="1">
+        <v>998</v>
+      </c>
+      <c r="B999" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1000" s="1">
+        <v>999</v>
+      </c>
+      <c r="B1000" s="1">
+        <v>14.396000000000001</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1001" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B1001" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1002" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B1002" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1003" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B1003" s="1">
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1004" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B1004" s="1">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1005" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B1005" s="1">
+        <v>14.395</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1006" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B1006" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1007" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B1007" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1008" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B1008" s="1">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1009" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B1009" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1010" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B1010" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1011" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B1011" s="1">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1012" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B1012" s="1">
+        <v>4.1040000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>